--- a/Documents/BurnDown.xlsx
+++ b/Documents/BurnDown.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lewis/OneDrive/IT/IFB299/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lewis/GitHub/IFB299/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Estimated Days Left</t>
   </si>
@@ -40,14 +40,36 @@
   <si>
     <t>Actual days</t>
   </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Yoon</t>
+  </si>
+  <si>
+    <t>Braydon</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>6b</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -61,13 +83,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,17 +153,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="4" builtinId="32"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -154,8 +250,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.305459088069956"/>
-          <c:y val="0.0555555555555555"/>
+          <c:x val="0.434751999434414"/>
+          <c:y val="0.0179568978084167"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1279,16 +1375,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>73024</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>78605</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>140757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>668866</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>135467</xdr:rowOff>
+      <xdr:rowOff>16934</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1573,16 +1669,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V4"/>
+  <dimension ref="B2:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AC28" sqref="AC28"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.2">
@@ -1741,7 +1839,74 @@
         <v>7</v>
       </c>
     </row>
+    <row r="11" spans="2:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" s="5"/>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>6</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C11:J11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Documents/BurnDown.xlsx
+++ b/Documents/BurnDown.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31940" windowHeight="18140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Estimated Days Left</t>
   </si>
@@ -55,14 +55,45 @@
   <si>
     <t>6b</t>
   </si>
+  <si>
+    <t>Team Member</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Hours Taken to do This</t>
+  </si>
+  <si>
+    <t>Estimated Points</t>
+  </si>
+  <si>
+    <t>Release Burndown</t>
+  </si>
+  <si>
+    <t>Sprints</t>
+  </si>
+  <si>
+    <t>Estimated Story Points Completed</t>
+  </si>
+  <si>
+    <t>Story Points Completed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -113,6 +144,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -153,38 +191,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="13">
     <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
     <cellStyle name="60% - Accent1" xfId="4" builtinId="32"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -222,11 +274,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -236,13 +288,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Media</a:t>
+              <a:t>Media Vault Burndown</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Vault Burndown</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -267,11 +314,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -293,30 +340,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Estimated Days Left</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Prediction</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -338,9 +371,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -365,14 +398,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
+                        <a:schemeClr val="dk1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -380,50 +412,143 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$W$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$O$2</c:f>
+              <c:f>Sheet1!$C$2:$V$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>13.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.0</c:v>
+                  <c:v>92.15000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.0</c:v>
+                  <c:v>87.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.0</c:v>
+                  <c:v>82.45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0</c:v>
+                  <c:v>77.60000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0</c:v>
+                  <c:v>72.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>67.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0</c:v>
+                  <c:v>63.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0</c:v>
+                  <c:v>58.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0</c:v>
+                  <c:v>53.35</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0</c:v>
+                  <c:v>43.65</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0</c:v>
+                  <c:v>38.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.55</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -438,20 +563,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Current Progress</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -473,9 +595,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -500,14 +622,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
+                        <a:schemeClr val="dk1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -515,32 +636,146 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$W$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$I$4</c:f>
+              <c:f>Sheet1!$C$4:$W$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>13.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.0</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.0</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.0</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.0</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>10.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                <c:pt idx="19">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -556,12 +791,27 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1527344736"/>
-        <c:axId val="1534337312"/>
+        <c:axId val="1666659120"/>
+        <c:axId val="1666662512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1527344736"/>
+        <c:axId val="1666659120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -574,9 +824,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
@@ -607,9 +857,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="dk1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
@@ -623,12 +873,431 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1666662512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1666662512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Sum of Hours to Finish Task</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1666659120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burndown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimated Story Points Completed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Sum of Points to Finish Task</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1729847056"/>
+        <c:axId val="1729497376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1729847056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -659,16 +1328,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1534337312"/>
+        <c:crossAx val="1729497376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="2"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1534337312"/>
+        <c:axId val="1729497376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,68 +1356,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-AU"/>
-                  <a:t>Estimated</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-AU" baseline="0"/>
-                  <a:t> Days Left</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-AU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -780,9 +1386,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1527344736"/>
+        <c:crossAx val="1729847056"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -869,34 +1475,74 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -904,22 +1550,22 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -934,9 +1580,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -970,36 +1616,60 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1011,15 +1681,18 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1027,13 +1700,523 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1137,8 +2320,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1228,20 +2417,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1254,17 +2443,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1296,7 +2474,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1305,13 +2483,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1365,8 +2544,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1375,16 +2560,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>78605</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>140757</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30449</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>668866</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>16934</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>142499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1398,6 +2583,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1669,243 +2884,430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V14"/>
+  <dimension ref="B2:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1">
-        <v>12</v>
+        <v>97</v>
+      </c>
+      <c r="D2">
+        <f>97-4.85</f>
+        <v>92.15</v>
       </c>
       <c r="E2" s="1">
-        <v>11</v>
+        <f>92.15-4.85</f>
+        <v>87.300000000000011</v>
       </c>
       <c r="F2" s="1">
-        <v>10</v>
+        <f>87.3-4.85</f>
+        <v>82.45</v>
       </c>
       <c r="G2" s="1">
-        <v>9</v>
+        <f>82.45-4.85</f>
+        <v>77.600000000000009</v>
       </c>
       <c r="H2" s="1">
-        <v>8</v>
+        <f>77.6-4.85</f>
+        <v>72.75</v>
       </c>
       <c r="I2" s="1">
-        <v>7</v>
+        <f>72.75-4.85</f>
+        <v>67.900000000000006</v>
       </c>
       <c r="J2" s="1">
-        <v>6</v>
+        <f>67.9-4.85</f>
+        <v>63.050000000000004</v>
       </c>
       <c r="K2" s="1">
-        <v>5</v>
+        <f>63.05-4.85</f>
+        <v>58.199999999999996</v>
       </c>
       <c r="L2" s="1">
-        <v>4</v>
+        <f>58.2-4.85</f>
+        <v>53.35</v>
       </c>
       <c r="M2" s="1">
-        <v>3</v>
+        <f>53.35-4.85</f>
+        <v>48.5</v>
       </c>
       <c r="N2" s="1">
-        <v>2</v>
+        <f>48.5-4.85</f>
+        <v>43.65</v>
       </c>
       <c r="O2" s="1">
-        <v>1</v>
+        <f>43.65-4.85</f>
+        <v>38.799999999999997</v>
       </c>
       <c r="P2" s="1">
+        <f>38.8-4.85</f>
+        <v>33.949999999999996</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>33.95-4.85</f>
+        <v>29.1</v>
+      </c>
+      <c r="R2" s="1">
+        <f>29.1-4.85</f>
+        <v>24.25</v>
+      </c>
+      <c r="S2" s="1">
+        <f>24.25-4.85</f>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="T2" s="1">
+        <f>19.4-4.85</f>
+        <v>14.549999999999999</v>
+      </c>
+      <c r="U2" s="1">
+        <f>14.55-4.85</f>
+        <v>9.7000000000000011</v>
+      </c>
+      <c r="V2" s="1">
+        <f>9.7-4.85</f>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="W2">
         <v>0</v>
       </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>4</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>6</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>7</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>8</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>9</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>10</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>11</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>12</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>13</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>14</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>15</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>16</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>17</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
         <v>18</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V3" s="1">
         <v>19</v>
       </c>
-      <c r="V3" s="1">
+      <c r="W3" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
+        <v>97</v>
+      </c>
+      <c r="D4">
+        <v>89</v>
+      </c>
+      <c r="E4">
+        <v>86</v>
+      </c>
+      <c r="F4">
+        <v>82</v>
+      </c>
+      <c r="G4">
+        <v>76</v>
+      </c>
+      <c r="H4">
+        <v>76</v>
+      </c>
+      <c r="I4">
+        <v>72</v>
+      </c>
+      <c r="J4">
+        <v>68</v>
+      </c>
+      <c r="K4">
+        <v>62</v>
+      </c>
+      <c r="L4">
+        <v>56</v>
+      </c>
+      <c r="M4">
+        <v>49</v>
+      </c>
+      <c r="N4">
+        <v>43</v>
+      </c>
+      <c r="O4">
+        <v>35</v>
+      </c>
+      <c r="P4">
+        <v>30</v>
+      </c>
+      <c r="Q4">
+        <v>28</v>
+      </c>
+      <c r="R4">
+        <v>24</v>
+      </c>
+      <c r="S4">
+        <v>18</v>
+      </c>
+      <c r="T4">
+        <v>14</v>
+      </c>
+      <c r="U4">
+        <v>10</v>
+      </c>
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7">
+        <v>4</v>
+      </c>
+      <c r="D19" s="7">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>20</v>
+      </c>
+      <c r="I19" s="5">
+        <v>6</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1</v>
+      </c>
+      <c r="N19" s="5">
+        <v>3</v>
+      </c>
+      <c r="O19">
         <v>13</v>
       </c>
-      <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
-      <c r="G4">
+      <c r="P19" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H4">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I4">
-        <v>7</v>
+      <c r="I21">
+        <v>1.5</v>
+      </c>
+      <c r="J21">
+        <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
-      <c r="C11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="2:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="8">
-        <v>4</v>
-      </c>
-      <c r="D12" s="8">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>13</v>
-      </c>
-      <c r="F12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6">
-        <v>6</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>18</v>
-      </c>
-      <c r="F14">
-        <v>20</v>
+    <row r="23" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="C23" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="E17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documents/BurnDown.xlsx
+++ b/Documents/BurnDown.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Estimated Days Left</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Story Points Completed</t>
+  </si>
+  <si>
+    <t>Story Point Burndown</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,14 +178,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -190,13 +187,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -212,31 +225,32 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="4" builtinId="32"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1291,6 +1305,67 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sprints Until</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Task is Complete</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1356,6 +1431,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sum of Story Points to Finish</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Task</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2561,15 +2697,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>30449</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>120247</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>140853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>142499</xdr:rowOff>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>25657</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2590,16 +2726,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>42589</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101729</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>314549</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>11546</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2884,10 +3020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W23"/>
+  <dimension ref="B1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2898,6 +3034,11 @@
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -3169,139 +3310,153 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
     </row>
     <row r="18" spans="2:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="H18" s="3" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="M18" s="3" t="s">
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
     </row>
     <row r="19" spans="2:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="9">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="9">
         <v>7</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="9">
         <v>6</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="9">
         <v>5</v>
       </c>
-      <c r="H19">
+      <c r="G19" s="8"/>
+      <c r="H19" s="9">
         <v>20</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="9">
         <v>6</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="9">
         <v>18</v>
       </c>
-      <c r="M19" s="5">
+      <c r="L19" s="8"/>
+      <c r="M19" s="9">
         <v>1</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="9">
         <v>3</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="9">
         <v>13</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="8">
         <v>2</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="8">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="8">
         <v>1</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="8">
         <v>1</v>
       </c>
-      <c r="H20">
+      <c r="G20" s="8"/>
+      <c r="H20" s="8">
         <v>1</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="8">
         <v>1</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="8">
         <v>2</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="8">
         <v>1</v>
       </c>
-      <c r="M20">
+      <c r="L20" s="8"/>
+      <c r="M20" s="8">
         <v>1</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="8">
         <v>1</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="8">
         <v>1</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I21">
-        <v>1.5</v>
-      </c>
-      <c r="J21">
-        <v>1.5</v>
-      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
     </row>
     <row r="23" spans="2:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Documents/BurnDown.xlsx
+++ b/Documents/BurnDown.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lewis/GitHub/IFB299/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xero\Documents\GitHub\IFB299\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,16 +14,16 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,15 +227,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -254,8 +254,36 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -268,7 +296,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -302,7 +330,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Media Vault Burndown</a:t>
+              <a:t>Sprint Burndown</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -312,7 +340,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.434751999434414"/>
-          <c:y val="0.0179568978084167"/>
+          <c:y val="1.7956897808416701E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -406,9 +434,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -433,67 +460,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -505,31 +532,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>97.0</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.15000000000001</c:v>
+                  <c:v>92.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.30000000000001</c:v>
+                  <c:v>87.300000000000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>82.45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.60000000000001</c:v>
+                  <c:v>77.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>72.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67.9</c:v>
+                  <c:v>67.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63.05</c:v>
+                  <c:v>63.050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.2</c:v>
+                  <c:v>58.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>53.35</c:v>
@@ -541,10 +568,10 @@
                   <c:v>43.65</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38.8</c:v>
+                  <c:v>38.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33.95</c:v>
+                  <c:v>33.949999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>29.1</c:v>
@@ -553,22 +580,22 @@
                   <c:v>24.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.4</c:v>
+                  <c:v>19.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.55</c:v>
+                  <c:v>14.549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.700000000000001</c:v>
+                  <c:v>9.7000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.85</c:v>
+                  <c:v>4.8499999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-96C9-40FD-B4D0-B5C928463CD3}"/>
             </c:ext>
@@ -632,7 +659,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -657,67 +683,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,72 +755,77 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>97.0</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68.0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC0F-49DD-B517-3E6C88D80309}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
@@ -857,7 +888,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -964,7 +994,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1087,7 +1116,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1121,12 +1150,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sprint Burndown</a:t>
+              <a:t>Release</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burndown</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1207,13 +1243,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1225,18 +1261,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42BC-4F89-8350-B29AE1F55494}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1275,15 +1316,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-42BC-4F89-8350-B29AE1F55494}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1336,7 +1382,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1462,7 +1507,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1492,6 +1536,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2709,7 +2754,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2739,7 +2790,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3023,23 +3080,23 @@
   <dimension ref="B1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3126,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3194,7 +3251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -3262,12 +3319,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -3281,7 +3338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -3295,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
@@ -3306,156 +3363,156 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="2:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="7" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="7" t="s">
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="2:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>4</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>7</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>6</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>5</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9">
+      <c r="G19" s="7"/>
+      <c r="H19" s="8">
         <v>20</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>6</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <v>18</v>
       </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="9">
+      <c r="L19" s="7"/>
+      <c r="M19" s="8">
         <v>1</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="8">
         <v>3</v>
       </c>
-      <c r="O19" s="9">
+      <c r="O19" s="8">
         <v>13</v>
       </c>
-      <c r="P19" s="9">
+      <c r="P19" s="8">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>1</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>1</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>1</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <v>1</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <v>2</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <v>1</v>
       </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8">
+      <c r="L20" s="7"/>
+      <c r="M20" s="7">
         <v>1</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="7">
         <v>1</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="7">
         <v>1</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
+    <row r="21" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
     </row>
-    <row r="23" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C23" s="3" t="s">
         <v>9</v>
       </c>

--- a/Documents/BurnDown.xlsx
+++ b/Documents/BurnDown.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xero\Documents\GitHub\IFB299\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/IFB299/IFB299/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -340,7 +340,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.434751999434414"/>
-          <c:y val="1.7956897808416701E-2"/>
+          <c:y val="0.0179568978084167"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -434,8 +434,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -460,67 +461,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -532,31 +533,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>97</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.15</c:v>
+                  <c:v>92.15000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.300000000000011</c:v>
+                  <c:v>87.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>82.45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.600000000000009</c:v>
+                  <c:v>77.60000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>72.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67.900000000000006</c:v>
+                  <c:v>67.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63.050000000000004</c:v>
+                  <c:v>63.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.199999999999996</c:v>
+                  <c:v>58.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>53.35</c:v>
@@ -568,10 +569,10 @@
                   <c:v>43.65</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38.799999999999997</c:v>
+                  <c:v>38.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33.949999999999996</c:v>
+                  <c:v>33.95</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>29.1</c:v>
@@ -580,22 +581,22 @@
                   <c:v>24.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.399999999999999</c:v>
+                  <c:v>19.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.549999999999999</c:v>
+                  <c:v>14.55</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.7000000000000011</c:v>
+                  <c:v>9.700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.8499999999999996</c:v>
+                  <c:v>4.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-96C9-40FD-B4D0-B5C928463CD3}"/>
             </c:ext>
@@ -657,8 +658,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -683,67 +685,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -755,73 +757,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>97</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EC0F-49DD-B517-3E6C88D80309}"/>
             </c:ext>
@@ -852,11 +854,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1666659120"/>
-        <c:axId val="1666662512"/>
+        <c:axId val="-1153652224"/>
+        <c:axId val="-1153648832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1666659120"/>
+        <c:axId val="-1153652224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,6 +890,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -954,7 +957,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1666662512"/>
+        <c:crossAx val="-1153648832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -962,7 +965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1666662512"/>
+        <c:axId val="-1153648832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,6 +997,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1054,7 +1058,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1666659120"/>
+        <c:crossAx val="-1153652224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1116,7 +1120,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1163,6 +1167,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1243,13 +1248,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1261,19 +1266,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-42BC-4F89-8350-B29AE1F55494}"/>
             </c:ext>
@@ -1311,21 +1316,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$9:$D$9</c:f>
+              <c:f>Sheet1!$C$9:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-42BC-4F89-8350-B29AE1F55494}"/>
             </c:ext>
@@ -1341,11 +1349,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1729847056"/>
-        <c:axId val="1729497376"/>
+        <c:axId val="-1153942928"/>
+        <c:axId val="-1153939808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1729847056"/>
+        <c:axId val="-1153942928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1382,6 +1390,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1448,7 +1457,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1729497376"/>
+        <c:crossAx val="-1153939808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1456,7 +1465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1729497376"/>
+        <c:axId val="-1153939808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1507,6 +1516,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1567,7 +1577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1729847056"/>
+        <c:crossAx val="-1153942928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2757,7 +2767,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2793,7 +2803,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3080,23 +3090,23 @@
   <dimension ref="B1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.36328125" customWidth="1"/>
-    <col min="3" max="3" width="13.36328125" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" customWidth="1"/>
-    <col min="10" max="10" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3183,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3251,7 +3261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -3319,12 +3329,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -3338,7 +3348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -3352,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
@@ -3362,8 +3372,11 @@
       <c r="D9">
         <v>14</v>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -3382,7 +3395,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
@@ -3407,7 +3420,7 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
@@ -3450,7 +3463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>11</v>
       </c>
@@ -3493,7 +3506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
@@ -3512,7 +3525,7 @@
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
     </row>
-    <row r="23" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="C23" s="3" t="s">
         <v>9</v>
       </c>
